--- a/Template.xlsx
+++ b/Template.xlsx
@@ -1820,7 +1820,7 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip cstate="print" r:embed="rId6"/>
+        <a:blip cstate="print" r:embed="rId8"/>
         <a:srcRect/>
         <a:stretch>
           <a:fillRect/>
@@ -1996,7 +1996,63 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
+        <a:blip cstate="print" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>2</col>
+      <colOff>0</colOff>
+      <row>2</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="4800600" cy="257175"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="8" name="Image 8" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
         <a:blip cstate="print" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>2</col>
+      <colOff>0</colOff>
+      <row>2</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="4800600" cy="257175"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="9" name="Image 9" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId9"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -4120,7 +4176,7 @@
       </c>
       <c r="C6" s="10" t="inlineStr">
         <is>
-          <t>08-02-24</t>
+          <t>23-09-24</t>
         </is>
       </c>
       <c r="D6" s="10" t="n"/>
@@ -4132,7 +4188,7 @@
       </c>
       <c r="G6" s="11" t="inlineStr">
         <is>
-          <t>Night</t>
+          <t>Day</t>
         </is>
       </c>
       <c r="H6" s="10" t="n"/>
@@ -4144,7 +4200,7 @@
       <c r="J6" s="10" t="n"/>
       <c r="K6" s="10" t="inlineStr">
         <is>
-          <t>Praful</t>
+          <t>Mukesh</t>
         </is>
       </c>
       <c r="L6" s="10" t="n"/>
@@ -4198,12 +4254,12 @@
       <c r="F8" s="19" t="n"/>
       <c r="G8" s="20" t="inlineStr">
         <is>
+          <t>A1</t>
+        </is>
+      </c>
+      <c r="H8" s="21" t="inlineStr">
+        <is>
           <t>B1</t>
-        </is>
-      </c>
-      <c r="H8" s="21" t="inlineStr">
-        <is>
-          <t>A1</t>
         </is>
       </c>
       <c r="I8" s="21" t="n"/>
@@ -4231,12 +4287,12 @@
       <c r="F9" s="19" t="n"/>
       <c r="G9" s="20" t="inlineStr">
         <is>
-          <t>2323</t>
+          <t>5456</t>
         </is>
       </c>
       <c r="H9" s="21" t="inlineStr">
         <is>
-          <t>453</t>
+          <t>455</t>
         </is>
       </c>
       <c r="I9" s="21" t="n"/>
@@ -4260,12 +4316,12 @@
       <c r="F10" s="23" t="n"/>
       <c r="G10" s="20" t="inlineStr">
         <is>
-          <t>546</t>
+          <t>8787</t>
         </is>
       </c>
       <c r="H10" s="21" t="inlineStr">
         <is>
-          <t>8675</t>
+          <t>567</t>
         </is>
       </c>
       <c r="I10" s="21" t="n"/>
@@ -4343,12 +4399,12 @@
       </c>
       <c r="G13" s="20" t="inlineStr">
         <is>
-          <t>45646</t>
+          <t>5567</t>
         </is>
       </c>
       <c r="H13" s="21" t="inlineStr">
         <is>
-          <t>5435</t>
+          <t>657</t>
         </is>
       </c>
       <c r="I13" s="79" t="n"/>
@@ -4376,12 +4432,12 @@
       </c>
       <c r="G14" s="20" t="inlineStr">
         <is>
-          <t>4434</t>
+          <t>434</t>
         </is>
       </c>
       <c r="H14" s="21" t="inlineStr">
         <is>
-          <t>453</t>
+          <t>657</t>
         </is>
       </c>
       <c r="I14" s="79" t="n"/>
@@ -4409,10 +4465,14 @@
       </c>
       <c r="G15" s="20" t="inlineStr">
         <is>
-          <t>344</t>
-        </is>
-      </c>
-      <c r="H15" s="21" t="inlineStr"/>
+          <t>435</t>
+        </is>
+      </c>
+      <c r="H15" s="21" t="inlineStr">
+        <is>
+          <t>765</t>
+        </is>
+      </c>
       <c r="I15" s="79" t="n"/>
       <c r="J15" s="79" t="n"/>
       <c r="K15" s="79" t="n"/>
@@ -4438,10 +4498,14 @@
       </c>
       <c r="G16" s="20" t="inlineStr">
         <is>
-          <t>546</t>
-        </is>
-      </c>
-      <c r="H16" s="21" t="inlineStr"/>
+          <t>543</t>
+        </is>
+      </c>
+      <c r="H16" s="21" t="inlineStr">
+        <is>
+          <t>566</t>
+        </is>
+      </c>
       <c r="I16" s="79" t="n"/>
       <c r="J16" s="79" t="n"/>
       <c r="K16" s="79" t="n"/>
@@ -4467,10 +4531,14 @@
       </c>
       <c r="G17" s="20" t="inlineStr">
         <is>
-          <t>655</t>
-        </is>
-      </c>
-      <c r="H17" s="21" t="inlineStr"/>
+          <t>3335</t>
+        </is>
+      </c>
+      <c r="H17" s="21" t="inlineStr">
+        <is>
+          <t>546</t>
+        </is>
+      </c>
       <c r="I17" s="79" t="n"/>
       <c r="J17" s="79" t="n"/>
       <c r="K17" s="79" t="n"/>
@@ -4600,8 +4668,16 @@
           <t>Kg</t>
         </is>
       </c>
-      <c r="G20" s="20" t="inlineStr"/>
-      <c r="H20" s="21" t="inlineStr"/>
+      <c r="G20" s="20" t="inlineStr">
+        <is>
+          <t>535</t>
+        </is>
+      </c>
+      <c r="H20" s="21" t="inlineStr">
+        <is>
+          <t>656</t>
+        </is>
+      </c>
       <c r="I20" s="79" t="n"/>
       <c r="J20" s="79" t="n"/>
       <c r="K20" s="79" t="n"/>
@@ -4625,8 +4701,16 @@
           <t>Kg</t>
         </is>
       </c>
-      <c r="G21" s="20" t="inlineStr"/>
-      <c r="H21" s="21" t="inlineStr"/>
+      <c r="G21" s="20" t="inlineStr">
+        <is>
+          <t>355</t>
+        </is>
+      </c>
+      <c r="H21" s="21" t="inlineStr">
+        <is>
+          <t>568</t>
+        </is>
+      </c>
       <c r="I21" s="79" t="n"/>
       <c r="J21" s="79" t="n"/>
       <c r="K21" s="79" t="n"/>
@@ -4650,8 +4734,16 @@
           <t>Kg</t>
         </is>
       </c>
-      <c r="G22" s="20" t="inlineStr"/>
-      <c r="H22" s="21" t="inlineStr"/>
+      <c r="G22" s="20" t="inlineStr">
+        <is>
+          <t>535</t>
+        </is>
+      </c>
+      <c r="H22" s="21" t="inlineStr">
+        <is>
+          <t>756</t>
+        </is>
+      </c>
       <c r="I22" s="79" t="n"/>
       <c r="J22" s="79" t="n"/>
       <c r="K22" s="79" t="n"/>
@@ -4762,8 +4854,16 @@
           <t>Timing</t>
         </is>
       </c>
-      <c r="G26" s="57" t="inlineStr"/>
-      <c r="H26" s="21" t="inlineStr"/>
+      <c r="G26" s="57" t="inlineStr">
+        <is>
+          <t>545</t>
+        </is>
+      </c>
+      <c r="H26" s="21" t="inlineStr">
+        <is>
+          <t>7858</t>
+        </is>
+      </c>
       <c r="I26" s="79" t="n"/>
       <c r="J26" s="79" t="n"/>
       <c r="K26" s="79" t="n"/>
@@ -4787,8 +4887,16 @@
           <t>Timing</t>
         </is>
       </c>
-      <c r="G27" s="57" t="inlineStr"/>
-      <c r="H27" s="21" t="inlineStr"/>
+      <c r="G27" s="57" t="inlineStr">
+        <is>
+          <t>355</t>
+        </is>
+      </c>
+      <c r="H27" s="21" t="inlineStr">
+        <is>
+          <t>576</t>
+        </is>
+      </c>
       <c r="I27" s="79" t="n"/>
       <c r="J27" s="79" t="n"/>
       <c r="K27" s="79" t="n"/>
@@ -4816,8 +4924,16 @@
           <t>Timing</t>
         </is>
       </c>
-      <c r="G28" s="57" t="inlineStr"/>
-      <c r="H28" s="21" t="inlineStr"/>
+      <c r="G28" s="57" t="inlineStr">
+        <is>
+          <t>355</t>
+        </is>
+      </c>
+      <c r="H28" s="21" t="inlineStr">
+        <is>
+          <t>654</t>
+        </is>
+      </c>
       <c r="I28" s="79" t="n"/>
       <c r="J28" s="79" t="n"/>
       <c r="K28" s="79" t="n"/>
@@ -4906,8 +5022,16 @@
           <t>Timing</t>
         </is>
       </c>
-      <c r="G30" s="48" t="inlineStr"/>
-      <c r="H30" s="48" t="inlineStr"/>
+      <c r="G30" s="48" t="inlineStr">
+        <is>
+          <t>353</t>
+        </is>
+      </c>
+      <c r="H30" s="48" t="inlineStr">
+        <is>
+          <t>754</t>
+        </is>
+      </c>
       <c r="I30" s="48" t="n"/>
       <c r="J30" s="48" t="n"/>
       <c r="K30" s="48" t="n"/>
@@ -4931,8 +5055,16 @@
           <t>770°C ± 20°C</t>
         </is>
       </c>
-      <c r="G31" s="57" t="inlineStr"/>
-      <c r="H31" s="21" t="inlineStr"/>
+      <c r="G31" s="57" t="inlineStr">
+        <is>
+          <t>554</t>
+        </is>
+      </c>
+      <c r="H31" s="21" t="inlineStr">
+        <is>
+          <t>675</t>
+        </is>
+      </c>
       <c r="I31" s="79" t="n"/>
       <c r="J31" s="79" t="n"/>
       <c r="K31" s="79" t="n"/>
@@ -4956,8 +5088,16 @@
           <t>Timing</t>
         </is>
       </c>
-      <c r="G32" s="57" t="inlineStr"/>
-      <c r="H32" s="21" t="inlineStr"/>
+      <c r="G32" s="57" t="inlineStr">
+        <is>
+          <t>355</t>
+        </is>
+      </c>
+      <c r="H32" s="21" t="inlineStr">
+        <is>
+          <t>765</t>
+        </is>
+      </c>
       <c r="I32" s="79" t="n"/>
       <c r="J32" s="79" t="n"/>
       <c r="K32" s="79" t="n"/>
@@ -4998,8 +5138,16 @@
           <t>Timing</t>
         </is>
       </c>
-      <c r="G34" s="57" t="inlineStr"/>
-      <c r="H34" s="21" t="inlineStr"/>
+      <c r="G34" s="57" t="inlineStr">
+        <is>
+          <t>647</t>
+        </is>
+      </c>
+      <c r="H34" s="21" t="inlineStr">
+        <is>
+          <t>546</t>
+        </is>
+      </c>
       <c r="I34" s="79" t="n"/>
       <c r="J34" s="79" t="n"/>
       <c r="K34" s="79" t="n"/>
